--- a/mcmaster_excel/Metric_Nylon_Pan_Head_Phillips_Screws.xlsx
+++ b/mcmaster_excel/Metric_Nylon_Pan_Head_Phillips_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,84 +434,92 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TemperatureRange, °F</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Choose a Color</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M2 × 0.4 mm</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Lg., mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TemperatureRange, °F</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Choose a Color</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Nylon Plastic</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -564,7 +572,11 @@
           <t>$10.19</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -622,7 +634,11 @@
           <t>10.23</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -680,7 +696,11 @@
           <t>10.28</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -738,7 +758,11 @@
           <t>15.71</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -773,7 +797,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-40° to 185°</t>
+          <t>-32° to 185°</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -796,7 +820,11 @@
           <t>15.78</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -854,7 +882,11 @@
           <t>15.97</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -912,7 +944,11 @@
           <t>16.04</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -922,19 +958,59 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>No. 0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-40° to 185°</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Off-White , Black</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>92492A708</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>M2.5 × 0.45 mm</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -944,7 +1020,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -984,15 +1060,19 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>92492A708</t>
+          <t>92492A709</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10.19</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1002,7 +1082,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1042,15 +1122,19 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>92492A709</t>
+          <t>92492A711</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10.23</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1060,7 +1144,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1100,15 +1184,19 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>92492A711</t>
+          <t>92492A712</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>10.28</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1118,7 +1206,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1158,15 +1246,19 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>92492A712</t>
+          <t>92492A713</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>10.36</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1176,7 +1268,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1186,22 +1278,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>No. 0</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-40° to 185°</t>
+          <t>-32° to 185°</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1216,15 +1308,19 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>92492A713</t>
+          <t>92492A714</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>10.44</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1234,19 +1330,59 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-32° to 185°</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Off-White , Black</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>92492A715</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>15.52</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>M3 × 0.5 mm</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1256,7 +1392,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1281,7 +1417,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-40° to 185°</t>
+          <t>-32° to 185°</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1296,15 +1432,19 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>92492A714</t>
+          <t>92492A716</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>10.19</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>15.52</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1314,7 +1454,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1339,7 +1479,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-40° to 185°</t>
+          <t>-32° to 185°</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1354,15 +1494,19 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>92492A715</t>
+          <t>92492A717</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>15.52</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>15.65</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1372,7 +1516,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1397,7 +1541,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-40° to 185°</t>
+          <t>-32° to 185°</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1412,15 +1556,19 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>92492A716</t>
+          <t>92492A718</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>15.52</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1430,7 +1578,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1470,15 +1618,19 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>92492A717</t>
+          <t>92492A719</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>15.65</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>15.97</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1488,7 +1640,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1528,15 +1680,19 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>92492A718</t>
+          <t>92492A721</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>15.78</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1546,7 +1702,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1586,15 +1742,19 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>92492A719</t>
+          <t>92492A722</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>15.97</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1604,7 +1764,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1644,15 +1804,19 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>92492A721</t>
+          <t>92492A723</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>16.04</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1662,7 +1826,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1702,15 +1866,19 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>92492A722</t>
+          <t>92492A724</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>16.13</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1720,7 +1888,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1730,22 +1898,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-40° to 185°</t>
+          <t>-32° to 185°</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1760,15 +1928,19 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>92492A723</t>
+          <t>92492A725</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>16.23</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>16.81</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1778,7 +1950,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1788,22 +1960,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-40° to 185°</t>
+          <t>-32° to 185°</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1818,15 +1990,19 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>92492A724</t>
+          <t>92492A726</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>16.42</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>16.81</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1836,19 +2012,59 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-32° to 185°</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Off-White , Black</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>92492A727</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>16.88</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1858,7 +2074,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1883,7 +2099,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-40° to 185°</t>
+          <t>-32° to 185°</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1898,15 +2114,19 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>92492A725</t>
+          <t>92492A728</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>16.81</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
+          <t>16.98</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1916,7 +2136,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1941,7 +2161,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-40° to 185°</t>
+          <t>-32° to 185°</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1956,15 +2176,19 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>92492A726</t>
+          <t>92492A729</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>16.81</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -1974,7 +2198,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2014,15 +2238,19 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>92492A727</t>
+          <t>92492A731</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>16.88</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2032,7 +2260,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2072,15 +2300,19 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>92492A728</t>
+          <t>92492A732</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>16.98</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
+          <t>17.21</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2090,7 +2322,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2130,15 +2362,19 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>92492A729</t>
+          <t>92492A733</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>17.06</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2148,7 +2384,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2188,15 +2424,19 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>92492A731</t>
+          <t>92492A734</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>17.19</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2206,7 +2446,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2216,12 +2456,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2231,7 +2471,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-40° to 185°</t>
+          <t>-32° to 185°</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2246,15 +2486,19 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>92492A732</t>
+          <t>92492A735</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>17.21</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2264,7 +2508,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2274,12 +2518,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2289,7 +2533,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-40° to 185°</t>
+          <t>-32° to 185°</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2304,15 +2548,19 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>92492A733</t>
+          <t>92492A736</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>17.72</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2322,7 +2570,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2332,12 +2580,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2347,7 +2595,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-40° to 185°</t>
+          <t>-32° to 185°</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2362,15 +2610,19 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>92492A734</t>
+          <t>92492A737</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>17.92</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2380,19 +2632,59 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>-40° to 185°</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Off-White , Black</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>92492A738</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2402,7 +2694,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2427,7 +2719,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-40° to 185°</t>
+          <t>-32° to 185°</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2442,15 +2734,19 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>92492A735</t>
+          <t>92492A739</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>18.18</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2460,7 +2756,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2500,15 +2796,19 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>92492A736</t>
+          <t>92492A741</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>18.31</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>18.76</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2518,7 +2818,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2558,15 +2858,19 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>92492A737</t>
+          <t>92492A742</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>18.44</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2576,7 +2880,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2616,15 +2920,19 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>92492A738</t>
+          <t>92492A743</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>18.50</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
+          <t>19.22</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2634,7 +2942,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2644,17 +2952,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2674,15 +2982,19 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>92492A739</t>
+          <t>92492A744</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>18.63</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2692,7 +3004,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2702,22 +3014,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-40° to 185°</t>
+          <t>-32° to 185°</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2732,15 +3044,19 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>92492A741</t>
+          <t>92492A745</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>18.76</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2750,7 +3066,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2760,22 +3076,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-40° to 185°</t>
+          <t>-32° to 185°</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2790,15 +3106,19 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>92492A742</t>
+          <t>92492A746</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>19.02</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2808,7 +3128,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2818,22 +3138,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-40° to 185°</t>
+          <t>-32° to 185°</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2848,15 +3168,19 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>92492A743</t>
+          <t>92492A747</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>19.22</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2866,19 +3190,59 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-32° to 185°</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Off-White , Black</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>92492A748</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2888,7 +3252,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2928,15 +3292,19 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>92492A744</t>
+          <t>92492A749</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>20.90</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -2946,7 +3314,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2986,15 +3354,19 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>92492A745</t>
+          <t>92492A751</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>20.97</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -3004,7 +3376,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3044,15 +3416,19 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>92492A746</t>
+          <t>92492A752</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>21.03</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -3062,7 +3438,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3102,15 +3478,19 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>92492A747</t>
+          <t>92492A753</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>21.10</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -3120,7 +3500,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3160,15 +3540,19 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>92492A748</t>
+          <t>92492A754</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>21.29</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
+          <t>22.27</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -3178,7 +3562,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3218,15 +3602,19 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>92492A749</t>
+          <t>92492A755</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>21.42</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -3236,7 +3624,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3246,17 +3634,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 4</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3271,20 +3659,24 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>92492A751</t>
+          <t>92492A756</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>21.68</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
+          <t>16.21</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -3294,7 +3686,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3304,17 +3696,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 4</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3329,20 +3721,24 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>92492A752</t>
+          <t>92492A757</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>21.94</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
+          <t>16.25</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -3352,7 +3748,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3362,17 +3758,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 4</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3387,20 +3783,24 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>92492A753</t>
+          <t>92492A758</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>22.14</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
+          <t>16.33</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -3410,7 +3810,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3420,17 +3820,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 4</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3445,20 +3845,24 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>92492A754</t>
+          <t>92492A759</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>22.27</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
+          <t>16.34</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -3478,17 +3882,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 4</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3503,20 +3907,24 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>92492A755</t>
+          <t>92492A761</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>22.33</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -3526,19 +3934,59 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>M8 × 1.25 mm</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>No. 4</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>-40° to 185°</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Off-White , Black</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>92492A762</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -3548,7 +3996,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3558,12 +4006,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3583,20 +4031,24 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>92492A756</t>
+          <t>92492A763</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>16.21</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
@@ -3606,7 +4058,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3616,12 +4068,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3641,391 +4093,25 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>92492A757</t>
+          <t>92492A764</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>16.25</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="L60" t="inlineStr">
-        <is>
-          <t>Nylon Plastic</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>-40° to 185°</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Off-White , Black</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>92492A758</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>16.33</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Nylon Plastic</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>-40° to 185°</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Off-White , Black</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>92492A759</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>16.34</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Nylon Plastic</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>-40° to 185°</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Off-White , Black</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>92492A761</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>17.19</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Nylon Plastic</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>M10 × 1.5 mm</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Nylon Plastic</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>-40° to 185°</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Off-White , Black</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>92492A762</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>21.36</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Nylon Plastic</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>-40° to 185°</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Off-White , Black</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>92492A763</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>22.17</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Nylon Plastic</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>-40° to 185°</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Off-White , Black</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>92492A764</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>23.01</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
         <is>
           <t>Nylon Plastic</t>
         </is>
